--- a/Testcases/credential sheet.xlsx
+++ b/Testcases/credential sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
   <si>
     <t>Testcase</t>
   </si>
@@ -938,6 +938,15 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="1">
+        <v>30000.0</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="O4" s="7">
         <v>20000.0</v>
       </c>

--- a/Testcases/credential sheet.xlsx
+++ b/Testcases/credential sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="120">
   <si>
     <t>TestCase</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Co_App_Downpay</t>
   </si>
   <si>
+    <t>Co_App_Gift_Description</t>
+  </si>
+  <si>
     <t>Co_App_Gift_assetvalue</t>
   </si>
   <si>
@@ -182,6 +185,9 @@
   </si>
   <si>
     <t>RRSP</t>
+  </si>
+  <si>
+    <t>Gift</t>
   </si>
   <si>
     <t>C128</t>
@@ -686,15 +692,15 @@
     <col customWidth="1" min="20" max="20" width="18.88"/>
     <col customWidth="1" min="21" max="21" width="21.5"/>
     <col customWidth="1" min="22" max="22" width="16.13"/>
-    <col customWidth="1" min="23" max="24" width="19.38"/>
-    <col customWidth="1" min="25" max="25" width="21.25"/>
-    <col customWidth="1" min="26" max="26" width="19.38"/>
-    <col customWidth="1" min="27" max="27" width="23.63"/>
-    <col customWidth="1" min="28" max="28" width="23.25"/>
-    <col customWidth="1" min="29" max="29" width="22.63"/>
-    <col customWidth="1" min="30" max="31" width="24.75"/>
-    <col customWidth="1" min="35" max="35" width="14.38"/>
-    <col customWidth="1" min="42" max="42" width="29.75"/>
+    <col customWidth="1" min="23" max="25" width="19.38"/>
+    <col customWidth="1" min="26" max="26" width="21.25"/>
+    <col customWidth="1" min="27" max="27" width="19.38"/>
+    <col customWidth="1" min="28" max="28" width="23.63"/>
+    <col customWidth="1" min="29" max="29" width="23.25"/>
+    <col customWidth="1" min="30" max="30" width="22.63"/>
+    <col customWidth="1" min="31" max="32" width="24.75"/>
+    <col customWidth="1" min="36" max="36" width="14.38"/>
+    <col customWidth="1" min="43" max="43" width="29.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -791,7 +797,7 @@
       <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
@@ -800,64 +806,67 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN2" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="AO2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -869,37 +878,37 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4" s="1">
         <v>30000.0</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O4" s="6">
         <v>20000.0</v>
@@ -913,7 +922,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W4" s="6">
         <v>20000.0</v>
@@ -921,47 +930,56 @@
       <c r="X4" s="6">
         <v>30000.0</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z4" s="6">
         <v>10000.0</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="AA4" s="6">
         <v>20000.0</v>
       </c>
-      <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="L5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="3">
+        <v>30000.0</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="O5" s="6">
         <v>20000.0</v>
       </c>
@@ -974,7 +992,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W5" s="6">
         <v>20000.0</v>
@@ -982,61 +1000,62 @@
       <c r="X5" s="6">
         <v>30000.0</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6">
         <v>10000.0</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AA5" s="1">
         <v>20000.0</v>
       </c>
-      <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M6" s="1">
         <v>30000.0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O6" s="1">
         <v>100000.0</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="1">
         <v>40000.0</v>
@@ -1049,65 +1068,68 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
-      <c r="AA6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1" t="s">
+      <c r="Z6" s="6"/>
+      <c r="AB6" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="AC6" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="AD6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE6" s="1">
+        <v>65</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF6" s="1">
         <v>50000.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M7" s="1">
         <v>30000.0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O7" s="1">
         <v>100000.0</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="1">
         <v>40000.0</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T7" s="6">
         <v>20000.0</v>
@@ -1118,64 +1140,64 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="AF8" s="1">
+      <c r="AG8" s="1">
         <v>5000.0</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AH8" s="1">
         <v>500.0</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AI8" s="1">
         <v>1000.0</v>
       </c>
-      <c r="AI8" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="AJ8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK8" s="1">
+        <v>68</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL8" s="1">
         <v>7000.0</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AM8" s="1">
         <v>700.0</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AN8" s="1">
         <v>1000.0</v>
       </c>
-      <c r="AN8" s="5">
+      <c r="AO8" s="5">
         <v>44663.0</v>
       </c>
-      <c r="AO8" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="AP8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -1188,6 +1210,7 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
     </row>
     <row r="14">
       <c r="K14" s="3"/>
@@ -1239,43 +1262,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -1305,43 +1328,43 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E2" s="9">
         <v>16502.0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H2" s="7">
         <v>110.0</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L2" s="9">
         <v>16502.0</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -1371,16 +1394,16 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -1437,90 +1460,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1540,18 +1563,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Testcases/credential sheet.xlsx
+++ b/Testcases/credential sheet.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gurud\OneDrive\Documents\UiPath\M3TECH_POC\Testcases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D7EA3F-111B-493E-8810-60A156D90A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="TestData1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="TestData2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="boss" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Login" sheetId="4" r:id="rId7"/>
+    <sheet name="TestData1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData2" sheetId="2" r:id="rId2"/>
+    <sheet name="boss" sheetId="3" r:id="rId3"/>
+    <sheet name="Login" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="117">
   <si>
     <t>TestCase</t>
   </si>
@@ -232,12 +241,6 @@
     <t>Testcase</t>
   </si>
   <si>
-    <t>First_name</t>
-  </si>
-  <si>
-    <t>Last_name</t>
-  </si>
-  <si>
     <t>DOB</t>
   </si>
   <si>
@@ -368,29 +371,34 @@
   </si>
   <si>
     <t>autoboss</t>
+  </si>
+  <si>
+    <t>C144</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="165" formatCode="mm-dd-yyyy"/>
+    <numFmt numFmtId="165" formatCode="mm\-dd\-yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -400,7 +408,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -410,71 +418,62 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -664,40 +663,50 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AQ15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="26.13"/>
-    <col customWidth="1" min="7" max="10" width="25.75"/>
-    <col customWidth="1" min="11" max="14" width="15.63"/>
-    <col customWidth="1" min="15" max="17" width="15.5"/>
-    <col customWidth="1" min="18" max="18" width="15.0"/>
-    <col customWidth="1" min="19" max="19" width="19.63"/>
-    <col customWidth="1" min="20" max="20" width="18.88"/>
-    <col customWidth="1" min="21" max="21" width="21.5"/>
-    <col customWidth="1" min="22" max="22" width="16.13"/>
-    <col customWidth="1" min="23" max="24" width="19.38"/>
-    <col customWidth="1" min="25" max="25" width="21.25"/>
-    <col customWidth="1" min="26" max="26" width="19.38"/>
-    <col customWidth="1" min="27" max="27" width="23.63"/>
-    <col customWidth="1" min="28" max="28" width="23.25"/>
-    <col customWidth="1" min="29" max="29" width="22.63"/>
-    <col customWidth="1" min="30" max="31" width="24.75"/>
-    <col customWidth="1" min="35" max="35" width="14.38"/>
-    <col customWidth="1" min="42" max="42" width="29.75"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="10" width="25.77734375" customWidth="1"/>
+    <col min="11" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.5546875" customWidth="1"/>
+    <col min="16" max="17" width="15.44140625" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" customWidth="1"/>
+    <col min="20" max="20" width="18.88671875" customWidth="1"/>
+    <col min="21" max="21" width="21.44140625" customWidth="1"/>
+    <col min="22" max="22" width="16.109375" customWidth="1"/>
+    <col min="23" max="24" width="19.33203125" customWidth="1"/>
+    <col min="25" max="25" width="21.21875" customWidth="1"/>
+    <col min="26" max="26" width="19.33203125" customWidth="1"/>
+    <col min="27" max="27" width="23.6640625" customWidth="1"/>
+    <col min="28" max="28" width="23.21875" customWidth="1"/>
+    <col min="29" max="29" width="22.6640625" customWidth="1"/>
+    <col min="30" max="31" width="24.77734375" customWidth="1"/>
+    <col min="35" max="35" width="14.33203125" customWidth="1"/>
+    <col min="42" max="42" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:43" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +837,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" ht="26.25" customHeight="1">
+    <row r="2" spans="1:43" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -843,7 +852,7 @@
       </c>
       <c r="AN2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:43" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -867,7 +876,7 @@
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:43" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
@@ -896,18 +905,18 @@
         <v>53</v>
       </c>
       <c r="M4" s="1">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="O4" s="6">
-        <v>20000.0</v>
+        <v>20000</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="1">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -916,16 +925,16 @@
         <v>55</v>
       </c>
       <c r="W4" s="6">
-        <v>20000.0</v>
+        <v>20000</v>
       </c>
       <c r="X4" s="6">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="Y4" s="6">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="Z4" s="6">
-        <v>20000.0</v>
+        <v>20000</v>
       </c>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
@@ -933,7 +942,7 @@
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:43" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -963,12 +972,12 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="6">
-        <v>20000.0</v>
+        <v>20000</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="1">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -977,21 +986,21 @@
         <v>55</v>
       </c>
       <c r="W5" s="6">
-        <v>20000.0</v>
+        <v>20000</v>
       </c>
       <c r="X5" s="6">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="Y5" s="6">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="Z5" s="1">
-        <v>20000.0</v>
+        <v>20000</v>
       </c>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:43" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
@@ -1027,19 +1036,19 @@
         <v>53</v>
       </c>
       <c r="M6" s="1">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>61</v>
       </c>
       <c r="O6" s="1">
-        <v>100000.0</v>
+        <v>100000</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>62</v>
       </c>
       <c r="Q6" s="1">
-        <v>40000.0</v>
+        <v>40000</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -1060,10 +1069,10 @@
         <v>62</v>
       </c>
       <c r="AE6" s="1">
-        <v>50000.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>64</v>
       </c>
@@ -1092,31 +1101,31 @@
         <v>53</v>
       </c>
       <c r="M7" s="1">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>61</v>
       </c>
       <c r="O7" s="1">
-        <v>100000.0</v>
+        <v>100000</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>62</v>
       </c>
       <c r="Q7" s="1">
-        <v>40000.0</v>
+        <v>40000</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>54</v>
       </c>
       <c r="T7" s="6">
-        <v>20000.0</v>
+        <v>20000</v>
       </c>
       <c r="U7" s="6">
-        <v>30000.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
@@ -1142,13 +1151,13 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="AF8" s="1">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="AG8" s="1">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="AH8" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" s="1" t="s">
         <v>66</v>
@@ -1157,16 +1166,16 @@
         <v>67</v>
       </c>
       <c r="AK8" s="1">
-        <v>7000.0</v>
+        <v>7000</v>
       </c>
       <c r="AL8" s="1">
-        <v>700.0</v>
+        <v>700</v>
       </c>
       <c r="AM8" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" s="5">
-        <v>44663.0</v>
+        <v>44663</v>
       </c>
       <c r="AO8" s="1" t="s">
         <v>68</v>
@@ -1178,7 +1187,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:43" ht="13.2" x14ac:dyDescent="0.25">
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
@@ -1189,7 +1198,7 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:43" ht="13.2" x14ac:dyDescent="0.25">
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1203,7 +1212,7 @@
       <c r="U14" s="4"/>
       <c r="V14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:43" ht="13.2" x14ac:dyDescent="0.25">
       <c r="K15" s="3"/>
       <c r="L15" s="6"/>
       <c r="M15" s="3"/>
@@ -1218,64 +1227,65 @@
       <c r="V15" s="6"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AL4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="22.75"/>
-    <col customWidth="1" min="12" max="12" width="17.38"/>
-    <col customWidth="1" min="13" max="13" width="17.63"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -1303,45 +1313,45 @@
       <c r="AK1" s="8"/>
       <c r="AL1" s="8"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="9">
+        <v>16502</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="9">
-        <v>16502.0</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="7">
+        <v>110</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="7">
-        <v>110.0</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="9">
+        <v>16502</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" s="9">
-        <v>16502.0</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -1369,9 +1379,9 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>44</v>
@@ -1417,57 +1427,65 @@
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
     </row>
+    <row r="4" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="25.63"/>
+    <col min="1" max="2" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>101</v>
       </c>
@@ -1475,7 +1493,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>103</v>
       </c>
@@ -1483,7 +1501,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
@@ -1491,7 +1509,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>107</v>
       </c>
@@ -1499,7 +1517,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
@@ -1507,7 +1525,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>111</v>
       </c>
@@ -1515,46 +1533,47 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>